--- a/xlsx/阿拉伯聯合大公國_intext.xlsx
+++ b/xlsx/阿拉伯聯合大公國_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="848">
   <si>
     <t>阿拉伯聯合大公國</t>
   </si>
@@ -29,7 +29,7 @@
     <t>阿拉伯联合酋长国国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_阿拉伯聯合大公國</t>
+    <t>体育运动_体育运动_南非_阿拉伯聯合大公國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD%E5%9B%BD%E5%BE%BD</t>
@@ -918,6 +918,12 @@
   </si>
   <si>
     <t>International Monetary Fund</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/OpenStreetMap</t>
+  </si>
+  <si>
+    <t>OpenStreetMap</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%9E%E6%B4%B2</t>
@@ -2901,7 +2907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I455"/>
+  <dimension ref="A1:I456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4579,7 +4585,7 @@
         <v>112</v>
       </c>
       <c r="G58" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -7421,7 +7427,7 @@
         <v>302</v>
       </c>
       <c r="G156" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -7450,7 +7456,7 @@
         <v>304</v>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -7479,7 +7485,7 @@
         <v>306</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -7508,7 +7514,7 @@
         <v>308</v>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -7537,7 +7543,7 @@
         <v>310</v>
       </c>
       <c r="G160" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -7566,7 +7572,7 @@
         <v>312</v>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -7595,7 +7601,7 @@
         <v>314</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -7624,7 +7630,7 @@
         <v>316</v>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -7653,7 +7659,7 @@
         <v>318</v>
       </c>
       <c r="G164" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7682,7 +7688,7 @@
         <v>320</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7740,7 +7746,7 @@
         <v>324</v>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -7798,7 +7804,7 @@
         <v>328</v>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -7885,7 +7891,7 @@
         <v>334</v>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -7914,7 +7920,7 @@
         <v>336</v>
       </c>
       <c r="G173" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -7943,7 +7949,7 @@
         <v>338</v>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -7972,7 +7978,7 @@
         <v>340</v>
       </c>
       <c r="G175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -8030,7 +8036,7 @@
         <v>344</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -8059,7 +8065,7 @@
         <v>346</v>
       </c>
       <c r="G178" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -8088,7 +8094,7 @@
         <v>348</v>
       </c>
       <c r="G179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -8117,7 +8123,7 @@
         <v>350</v>
       </c>
       <c r="G180" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -8146,7 +8152,7 @@
         <v>352</v>
       </c>
       <c r="G181" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -8175,7 +8181,7 @@
         <v>354</v>
       </c>
       <c r="G182" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -8204,7 +8210,7 @@
         <v>356</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -8262,7 +8268,7 @@
         <v>360</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -8291,7 +8297,7 @@
         <v>362</v>
       </c>
       <c r="G186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -8436,7 +8442,7 @@
         <v>372</v>
       </c>
       <c r="G191" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8465,7 +8471,7 @@
         <v>374</v>
       </c>
       <c r="G192" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8523,7 +8529,7 @@
         <v>378</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -8581,7 +8587,7 @@
         <v>382</v>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -8610,7 +8616,7 @@
         <v>384</v>
       </c>
       <c r="G197" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -8639,7 +8645,7 @@
         <v>386</v>
       </c>
       <c r="G198" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8668,7 +8674,7 @@
         <v>388</v>
       </c>
       <c r="G199" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8697,7 +8703,7 @@
         <v>390</v>
       </c>
       <c r="G200" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -8726,7 +8732,7 @@
         <v>392</v>
       </c>
       <c r="G201" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -8755,7 +8761,7 @@
         <v>394</v>
       </c>
       <c r="G202" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -8784,7 +8790,7 @@
         <v>396</v>
       </c>
       <c r="G203" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -8813,7 +8819,7 @@
         <v>398</v>
       </c>
       <c r="G204" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -8842,7 +8848,7 @@
         <v>400</v>
       </c>
       <c r="G205" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -8871,7 +8877,7 @@
         <v>402</v>
       </c>
       <c r="G206" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -8900,7 +8906,7 @@
         <v>404</v>
       </c>
       <c r="G207" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -8929,7 +8935,7 @@
         <v>406</v>
       </c>
       <c r="G208" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -8958,7 +8964,7 @@
         <v>408</v>
       </c>
       <c r="G209" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -9016,7 +9022,7 @@
         <v>412</v>
       </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -9045,7 +9051,7 @@
         <v>414</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -9103,7 +9109,7 @@
         <v>418</v>
       </c>
       <c r="G214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -9132,7 +9138,7 @@
         <v>420</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -9190,7 +9196,7 @@
         <v>424</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9219,7 +9225,7 @@
         <v>426</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -9248,7 +9254,7 @@
         <v>428</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9277,7 +9283,7 @@
         <v>430</v>
       </c>
       <c r="G220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -9335,7 +9341,7 @@
         <v>434</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -9422,7 +9428,7 @@
         <v>440</v>
       </c>
       <c r="G225" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -9451,7 +9457,7 @@
         <v>442</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -9480,7 +9486,7 @@
         <v>444</v>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -9538,7 +9544,7 @@
         <v>448</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -9567,7 +9573,7 @@
         <v>450</v>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -9619,13 +9625,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>315</v>
+        <v>453</v>
       </c>
       <c r="F232" t="s">
-        <v>316</v>
+        <v>454</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -9648,13 +9654,13 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>411</v>
+        <v>317</v>
       </c>
       <c r="F233" t="s">
-        <v>412</v>
+        <v>318</v>
       </c>
       <c r="G233" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -9677,13 +9683,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="G234" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9712,7 +9718,7 @@
         <v>456</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9741,7 +9747,7 @@
         <v>458</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9828,7 +9834,7 @@
         <v>464</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -9886,7 +9892,7 @@
         <v>468</v>
       </c>
       <c r="G241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -9909,10 +9915,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>323</v>
+        <v>469</v>
       </c>
       <c r="F242" t="s">
-        <v>324</v>
+        <v>470</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9938,13 +9944,13 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>325</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>326</v>
       </c>
       <c r="G243" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -9967,13 +9973,13 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="F244" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -9996,10 +10002,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="F245" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10025,13 +10031,13 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="F246" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -10054,13 +10060,13 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>416</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10089,7 +10095,7 @@
         <v>474</v>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -10112,13 +10118,13 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="F249" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10141,10 +10147,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>475</v>
+        <v>421</v>
       </c>
       <c r="F250" t="s">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10170,10 +10176,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="F251" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10199,10 +10205,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>477</v>
+        <v>427</v>
       </c>
       <c r="F252" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10321,7 +10327,7 @@
         <v>486</v>
       </c>
       <c r="G256" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -10350,7 +10356,7 @@
         <v>488</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -10379,7 +10385,7 @@
         <v>490</v>
       </c>
       <c r="G258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10408,7 +10414,7 @@
         <v>492</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -10431,10 +10437,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>9</v>
+        <v>493</v>
       </c>
       <c r="F260" t="s">
-        <v>10</v>
+        <v>494</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10460,13 +10466,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>493</v>
+        <v>9</v>
       </c>
       <c r="F261" t="s">
-        <v>494</v>
+        <v>10</v>
       </c>
       <c r="G261" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10495,7 +10501,7 @@
         <v>496</v>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10524,7 +10530,7 @@
         <v>498</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10553,7 +10559,7 @@
         <v>500</v>
       </c>
       <c r="G264" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10582,7 +10588,7 @@
         <v>502</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10611,7 +10617,7 @@
         <v>504</v>
       </c>
       <c r="G266" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10640,7 +10646,7 @@
         <v>506</v>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10669,7 +10675,7 @@
         <v>508</v>
       </c>
       <c r="G268" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10698,7 +10704,7 @@
         <v>510</v>
       </c>
       <c r="G269" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10756,7 +10762,7 @@
         <v>514</v>
       </c>
       <c r="G271" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -10814,7 +10820,7 @@
         <v>518</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10872,7 +10878,7 @@
         <v>522</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -10901,7 +10907,7 @@
         <v>524</v>
       </c>
       <c r="G276" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -10930,7 +10936,7 @@
         <v>526</v>
       </c>
       <c r="G277" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -10959,7 +10965,7 @@
         <v>528</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -10988,7 +10994,7 @@
         <v>530</v>
       </c>
       <c r="G279" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -11017,7 +11023,7 @@
         <v>532</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -11075,7 +11081,7 @@
         <v>536</v>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -11104,7 +11110,7 @@
         <v>538</v>
       </c>
       <c r="G283" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -11133,7 +11139,7 @@
         <v>540</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -11220,7 +11226,7 @@
         <v>546</v>
       </c>
       <c r="G287" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11249,7 +11255,7 @@
         <v>548</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -11278,7 +11284,7 @@
         <v>550</v>
       </c>
       <c r="G289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -11307,7 +11313,7 @@
         <v>552</v>
       </c>
       <c r="G290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11336,7 +11342,7 @@
         <v>554</v>
       </c>
       <c r="G291" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11365,7 +11371,7 @@
         <v>556</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11394,7 +11400,7 @@
         <v>558</v>
       </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11504,13 +11510,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="F297" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="G297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -11533,13 +11539,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>565</v>
+        <v>533</v>
       </c>
       <c r="F298" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11568,7 +11574,7 @@
         <v>568</v>
       </c>
       <c r="G299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -11597,7 +11603,7 @@
         <v>570</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -11771,7 +11777,7 @@
         <v>582</v>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -11800,7 +11806,7 @@
         <v>584</v>
       </c>
       <c r="G307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -11829,7 +11835,7 @@
         <v>586</v>
       </c>
       <c r="G308" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11858,7 +11864,7 @@
         <v>588</v>
       </c>
       <c r="G309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -11945,7 +11951,7 @@
         <v>594</v>
       </c>
       <c r="G312" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -11974,7 +11980,7 @@
         <v>596</v>
       </c>
       <c r="G313" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12003,7 +12009,7 @@
         <v>598</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -12055,10 +12061,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="F316" t="s">
-        <v>516</v>
+        <v>602</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -12084,13 +12090,13 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>601</v>
+        <v>517</v>
       </c>
       <c r="F317" t="s">
-        <v>602</v>
+        <v>518</v>
       </c>
       <c r="G317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -12119,7 +12125,7 @@
         <v>604</v>
       </c>
       <c r="G318" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -12148,7 +12154,7 @@
         <v>606</v>
       </c>
       <c r="G319" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -12171,13 +12177,13 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="F320" t="s">
-        <v>548</v>
+        <v>608</v>
       </c>
       <c r="G320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -12200,13 +12206,13 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>383</v>
+        <v>549</v>
       </c>
       <c r="F321" t="s">
-        <v>384</v>
+        <v>550</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12229,13 +12235,13 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>607</v>
+        <v>385</v>
       </c>
       <c r="F322" t="s">
-        <v>608</v>
+        <v>386</v>
       </c>
       <c r="G322" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>4</v>
@@ -12264,7 +12270,7 @@
         <v>610</v>
       </c>
       <c r="G323" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12345,10 +12351,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>513</v>
+        <v>615</v>
       </c>
       <c r="F326" t="s">
-        <v>514</v>
+        <v>616</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12374,13 +12380,13 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>615</v>
+        <v>515</v>
       </c>
       <c r="F327" t="s">
-        <v>616</v>
+        <v>516</v>
       </c>
       <c r="G327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -12438,7 +12444,7 @@
         <v>620</v>
       </c>
       <c r="G329" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12490,13 +12496,13 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>413</v>
+        <v>623</v>
       </c>
       <c r="F331" t="s">
-        <v>414</v>
+        <v>624</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -12519,10 +12525,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>623</v>
+        <v>415</v>
       </c>
       <c r="F332" t="s">
-        <v>624</v>
+        <v>416</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12612,7 +12618,7 @@
         <v>630</v>
       </c>
       <c r="G335" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -12641,7 +12647,7 @@
         <v>632</v>
       </c>
       <c r="G336" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H336" t="s">
         <v>4</v>
@@ -12664,13 +12670,13 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>529</v>
+        <v>633</v>
       </c>
       <c r="F337" t="s">
-        <v>530</v>
+        <v>634</v>
       </c>
       <c r="G337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12693,10 +12699,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>633</v>
+        <v>531</v>
       </c>
       <c r="F338" t="s">
-        <v>634</v>
+        <v>532</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12728,7 +12734,7 @@
         <v>636</v>
       </c>
       <c r="G339" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H339" t="s">
         <v>4</v>
@@ -12757,7 +12763,7 @@
         <v>638</v>
       </c>
       <c r="G340" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -12815,7 +12821,7 @@
         <v>642</v>
       </c>
       <c r="G342" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H342" t="s">
         <v>4</v>
@@ -12844,7 +12850,7 @@
         <v>644</v>
       </c>
       <c r="G343" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -12873,7 +12879,7 @@
         <v>646</v>
       </c>
       <c r="G344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -12896,13 +12902,13 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>307</v>
+        <v>647</v>
       </c>
       <c r="F345" t="s">
-        <v>308</v>
+        <v>648</v>
       </c>
       <c r="G345" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -12925,10 +12931,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>647</v>
+        <v>309</v>
       </c>
       <c r="F346" t="s">
-        <v>648</v>
+        <v>310</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -12960,7 +12966,7 @@
         <v>650</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -12989,7 +12995,7 @@
         <v>652</v>
       </c>
       <c r="G348" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -13018,7 +13024,7 @@
         <v>654</v>
       </c>
       <c r="G349" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -13047,7 +13053,7 @@
         <v>656</v>
       </c>
       <c r="G350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H350" t="s">
         <v>4</v>
@@ -13076,7 +13082,7 @@
         <v>658</v>
       </c>
       <c r="G351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -13163,7 +13169,7 @@
         <v>664</v>
       </c>
       <c r="G354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13192,7 +13198,7 @@
         <v>666</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -13250,7 +13256,7 @@
         <v>670</v>
       </c>
       <c r="G357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -13279,7 +13285,7 @@
         <v>672</v>
       </c>
       <c r="G358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H358" t="s">
         <v>4</v>
@@ -13337,7 +13343,7 @@
         <v>676</v>
       </c>
       <c r="G360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -13366,7 +13372,7 @@
         <v>678</v>
       </c>
       <c r="G361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H361" t="s">
         <v>4</v>
@@ -13569,7 +13575,7 @@
         <v>692</v>
       </c>
       <c r="G368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -13598,7 +13604,7 @@
         <v>694</v>
       </c>
       <c r="G369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -13627,7 +13633,7 @@
         <v>696</v>
       </c>
       <c r="G370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -13685,7 +13691,7 @@
         <v>700</v>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H372" t="s">
         <v>4</v>
@@ -13714,7 +13720,7 @@
         <v>702</v>
       </c>
       <c r="G373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -13743,7 +13749,7 @@
         <v>704</v>
       </c>
       <c r="G374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -13772,7 +13778,7 @@
         <v>706</v>
       </c>
       <c r="G375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -13801,7 +13807,7 @@
         <v>708</v>
       </c>
       <c r="G376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -13830,7 +13836,7 @@
         <v>710</v>
       </c>
       <c r="G377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -13859,7 +13865,7 @@
         <v>712</v>
       </c>
       <c r="G378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -13882,10 +13888,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>619</v>
+        <v>713</v>
       </c>
       <c r="F379" t="s">
-        <v>620</v>
+        <v>714</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13911,10 +13917,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>313</v>
+        <v>621</v>
       </c>
       <c r="F380" t="s">
-        <v>314</v>
+        <v>622</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13940,13 +13946,13 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>713</v>
+        <v>315</v>
       </c>
       <c r="F381" t="s">
-        <v>714</v>
+        <v>316</v>
       </c>
       <c r="G381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
@@ -14004,7 +14010,7 @@
         <v>718</v>
       </c>
       <c r="G383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -14149,7 +14155,7 @@
         <v>728</v>
       </c>
       <c r="G388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -14178,7 +14184,7 @@
         <v>730</v>
       </c>
       <c r="G389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -14265,7 +14271,7 @@
         <v>736</v>
       </c>
       <c r="G392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -14294,7 +14300,7 @@
         <v>738</v>
       </c>
       <c r="G393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
@@ -14410,7 +14416,7 @@
         <v>746</v>
       </c>
       <c r="G397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -14468,7 +14474,7 @@
         <v>750</v>
       </c>
       <c r="G399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -14874,7 +14880,7 @@
         <v>778</v>
       </c>
       <c r="G413" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -14903,7 +14909,7 @@
         <v>780</v>
       </c>
       <c r="G414" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H414" t="s">
         <v>4</v>
@@ -14955,10 +14961,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>667</v>
+        <v>783</v>
       </c>
       <c r="F416" t="s">
-        <v>668</v>
+        <v>784</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14984,10 +14990,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>783</v>
+        <v>669</v>
       </c>
       <c r="F417" t="s">
-        <v>784</v>
+        <v>670</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15013,13 +15019,13 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>665</v>
+        <v>785</v>
       </c>
       <c r="F418" t="s">
-        <v>666</v>
+        <v>786</v>
       </c>
       <c r="G418" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
@@ -15042,13 +15048,13 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>785</v>
+        <v>667</v>
       </c>
       <c r="F419" t="s">
-        <v>786</v>
+        <v>668</v>
       </c>
       <c r="G419" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -15245,10 +15251,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>639</v>
+        <v>799</v>
       </c>
       <c r="F426" t="s">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15274,10 +15280,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>799</v>
+        <v>641</v>
       </c>
       <c r="F427" t="s">
-        <v>800</v>
+        <v>642</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15535,10 +15541,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>693</v>
+        <v>817</v>
       </c>
       <c r="F436" t="s">
-        <v>694</v>
+        <v>818</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15564,10 +15570,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>817</v>
+        <v>695</v>
       </c>
       <c r="F437" t="s">
-        <v>818</v>
+        <v>696</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15622,10 +15628,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>397</v>
+        <v>821</v>
       </c>
       <c r="F439" t="s">
-        <v>398</v>
+        <v>822</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15651,10 +15657,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>821</v>
+        <v>399</v>
       </c>
       <c r="F440" t="s">
-        <v>822</v>
+        <v>400</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15796,10 +15802,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>729</v>
+        <v>831</v>
       </c>
       <c r="F445" t="s">
-        <v>730</v>
+        <v>832</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15825,10 +15831,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>831</v>
+        <v>731</v>
       </c>
       <c r="F446" t="s">
-        <v>832</v>
+        <v>732</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15854,10 +15860,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>633</v>
+        <v>833</v>
       </c>
       <c r="F447" t="s">
-        <v>634</v>
+        <v>834</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15883,13 +15889,13 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>579</v>
+        <v>635</v>
       </c>
       <c r="F448" t="s">
-        <v>580</v>
+        <v>636</v>
       </c>
       <c r="G448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H448" t="s">
         <v>4</v>
@@ -15912,13 +15918,13 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>833</v>
+        <v>581</v>
       </c>
       <c r="F449" t="s">
-        <v>834</v>
+        <v>582</v>
       </c>
       <c r="G449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H449" t="s">
         <v>4</v>
@@ -15947,7 +15953,7 @@
         <v>836</v>
       </c>
       <c r="G450" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H450" t="s">
         <v>4</v>
@@ -16063,7 +16069,7 @@
         <v>844</v>
       </c>
       <c r="G454" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H454" t="s">
         <v>4</v>
@@ -16086,18 +16092,47 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F455" t="s">
+        <v>846</v>
+      </c>
+      <c r="G455" t="n">
+        <v>12</v>
+      </c>
+      <c r="H455" t="s">
+        <v>4</v>
+      </c>
+      <c r="I455" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="s">
+        <v>0</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1</v>
+      </c>
+      <c r="D456" t="n">
+        <v>455</v>
+      </c>
+      <c r="E456" t="s">
         <v>845</v>
       </c>
-      <c r="G455" t="n">
-        <v>1</v>
-      </c>
-      <c r="H455" t="s">
-        <v>4</v>
-      </c>
-      <c r="I455" t="n">
+      <c r="F456" t="s">
+        <v>847</v>
+      </c>
+      <c r="G456" t="n">
+        <v>1</v>
+      </c>
+      <c r="H456" t="s">
+        <v>4</v>
+      </c>
+      <c r="I456" t="n">
         <v>3</v>
       </c>
     </row>
